--- a/scenarios/bladder/processes/BladderMeds.xlsx
+++ b/scenarios/bladder/processes/BladderMeds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C28AD9-D0C9-473A-BEE8-649BC1A286DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B878C78-FC8F-42BD-BA01-06D73E59AEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
   <si>
     <t>ID</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Ist es sinnvoll zwei Schmerzmittel zu kombinieren?</t>
   </si>
   <si>
-    <t>In einer aktuellen Studie konnte gezeigt werden, dass die Kombination aus Ibuprofen und Paracetamol (enthalten in Buscopan Plus) effektiver als die Monotherapie ist. Es wurden zwar auch mehr Nebenwirkungen beobachtet, aber bei kurzzeitiger Anwendung (bei einer Blasenentzündung max. 7 Tage) sind Nebenwirkungen generell relativ selten. | https://www.deutsche-apotheker-zeitung.de/daz-az/2011/daz-34-2011/paracetamol-ibuprofen-oder-eine-kombination</t>
-  </si>
-  <si>
     <t>busco</t>
   </si>
   <si>
@@ -194,34 +191,16 @@
     <t>Es gibt 2 gängie Möglichkeiten: Die Inhaltsstoffe von Aqua-Libra® haben eine positiv-Bewertung der Kommission E, die von Canephron® Uno haben das leider nicht. Dennoch machen viele Patientinnen mit Canephron®Uno gute Erfahrungen. Wenn du mit einem der beiden Präparate schon gute Erfahrungen gemacht hast, empfehle ich dir, dabei zu bleiben. Andernfalls würde ich zunächst Aqua-Libra® ausprobieren.</t>
   </si>
   <si>
-    <t>prod1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aqua-Libra; Canephron®Uno </t>
-  </si>
-  <si>
     <t>aqua_mono</t>
   </si>
   <si>
     <t xml:space="preserve">Folgende Monopräparate können das Durchspülen deiner Blase unterstützen: </t>
   </si>
   <si>
-    <t>prod2</t>
-  </si>
-  <si>
-    <t>Monopräparate</t>
-  </si>
-  <si>
     <t>aqua_tea</t>
   </si>
   <si>
     <t xml:space="preserve">Folgende Arzneitees können das Durchspülen deiner Blase unterstützen: </t>
-  </si>
-  <si>
-    <t>prod3</t>
-  </si>
-  <si>
-    <t>Tees</t>
   </si>
   <si>
     <t>desi</t>
@@ -271,9 +250,6 @@
   </si>
   <si>
     <t>Ein relativ neuer Therpie-Ansatz hilft besonders gut, wenn die Blasenentzündung noch im Anfang ist und wird auch gerne zur Prophylaxe (Vorbeugung) angewendet. Es werden dreimal täglich ein Tütchen des Zuckers in ein Glas Wasser eingerührt und getrunken. Der Zucker wird nicht verstoffwechselt, deshalb nimmst du davon auch gar nicht zu.</t>
-  </si>
-  <si>
-    <t>JUMP(Bladder_explanation)</t>
   </si>
   <si>
     <t xml:space="preserve">Wie funktioniert das? </t>
@@ -315,12 +291,30 @@
       <t xml:space="preserve"> Medication: offer Tea in addition, else: only tea</t>
     </r>
   </si>
+  <si>
+    <t>In einer aktuellen Studie konnte gezeigt werden, dass die Kombination aus Ibuprofen und Paracetamol (enthalten in Buscopan Plus) effektiver als die Monotherapie ist. Es wurden zwar auch mehr Nebenwirkungen beobachtet, aber bei kurzzeitiger Anwendung (bei einer Blasenentzündung maximal 7 Tage) sind Nebenwirkungen generell relativ selten.</t>
+  </si>
+  <si>
+    <t>aqua_tea_addition</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>GO(aqua_tea_addition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenn du möchtest, kannst du die Spültherapie zusätzlich mit einem Arznei-Tee unterstützen. </t>
+  </si>
+  <si>
+    <t>JUMP(BladderExplanation)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -388,8 +382,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +418,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFBE5D6"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -460,7 +466,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -485,19 +491,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -505,17 +500,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="MetaData_Columns" xfId="1" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
@@ -899,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:E26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -960,6 +965,7 @@
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="H2" s="23"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C3" s="7" t="s">
@@ -968,6 +974,7 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="H3" s="23"/>
     </row>
     <row r="4" spans="1:9" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -979,6 +986,7 @@
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="H4" s="23"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C5" s="7" t="s">
@@ -990,12 +998,13 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
+      <c r="H5" s="23"/>
     </row>
     <row r="6" spans="1:9" ht="169.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1005,46 +1014,47 @@
         <v>21</v>
       </c>
       <c r="F6" s="11"/>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>23</v>
+      <c r="I6" s="16" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A7" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>21</v>
       </c>
       <c r="F7" s="11"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:9" ht="306" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>83</v>
+      <c r="I8" s="17" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1052,339 +1062,347 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
         <v>30</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
-        <v>32</v>
-      </c>
+      <c r="H9" s="23"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
+      <c r="H10" s="23"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>36</v>
-      </c>
+      <c r="H11" s="23"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
         <v>37</v>
       </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
-      </c>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
       </c>
+      <c r="H13" s="23"/>
     </row>
     <row r="14" spans="1:9" ht="291.45" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="15" t="s">
+      <c r="F14" s="19"/>
+      <c r="H14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>84</v>
-      </c>
+      <c r="D15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H19" s="23"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="H20" s="23"/>
+    </row>
+    <row r="21" spans="1:9" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>51</v>
-      </c>
+      <c r="D21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="19"/>
+      <c r="H21" s="23"/>
     </row>
     <row r="22" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="19" t="s">
-        <v>13</v>
+        <v>53</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="21"/>
+        <v>54</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="H22" s="23"/>
+    </row>
+    <row r="23" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="H23" s="23"/>
     </row>
     <row r="24" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F24" s="19"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B26" s="13"/>
+      <c r="C26" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="H26" s="23"/>
+    </row>
+    <row r="27" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B27" s="13"/>
+      <c r="C27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="E27" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="23" t="s">
+      <c r="H27" s="23"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B28" s="13"/>
+      <c r="C28" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="23"/>
+    </row>
+    <row r="29" spans="1:9" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="18"/>
-      <c r="C27" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="19"/>
+      <c r="H29" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B28" s="18"/>
-      <c r="C28" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="I29" s="16" t="s">
         <v>68</v>
-      </c>
-      <c r="E28" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="18"/>
-      <c r="C29" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="19"/>
+      <c r="H30" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="E31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="H31" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E30" t="s">
-        <v>51</v>
-      </c>
-      <c r="H30" s="15" t="s">
+      <c r="I31" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="I30" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="233.15" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" t="s">
-        <v>51</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="189.45" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="18"/>
-      <c r="C32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C34" s="19"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C33" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/scenarios/bladder/processes/BladderMeds.xlsx
+++ b/scenarios/bladder/processes/BladderMeds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B878C78-FC8F-42BD-BA01-06D73E59AEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B9473F-9B30-496C-AE8F-051AC6C93851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -296,9 +296,6 @@
   </si>
   <si>
     <t>aqua_tea_addition</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>GO(aqua_tea_addition)</t>
@@ -904,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1227,7 +1224,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F21" s="19"/>
       <c r="H21" s="23"/>
@@ -1244,7 +1241,7 @@
         <v>54</v>
       </c>
       <c r="E22" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F22" s="19"/>
       <c r="H22" s="23"/>
@@ -1255,118 +1252,107 @@
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="21" t="s">
-        <v>79</v>
+        <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="F23" s="22"/>
       <c r="H23" s="23"/>
     </row>
-    <row r="24" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B24" s="13"/>
       <c r="C24" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E25" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F24" s="19"/>
-      <c r="H24" s="23"/>
-    </row>
-    <row r="25" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="F25" s="19"/>
+      <c r="H25" s="23"/>
+    </row>
+    <row r="26" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B26" s="13"/>
       <c r="C26" s="14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H26" s="23"/>
     </row>
-    <row r="27" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B27" s="13"/>
       <c r="C27" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="23"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="B28" s="13"/>
       <c r="C28" s="14" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H28" s="23"/>
     </row>
-    <row r="29" spans="1:9" ht="233.15" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>65</v>
-      </c>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="B29" s="13"/>
       <c r="C29" s="14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="19"/>
-      <c r="H29" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>68</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="H29" s="23"/>
     </row>
     <row r="30" spans="1:9" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
         <v>50</v>
@@ -1379,30 +1365,52 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="189.45" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="H31" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="2" t="s">
+      <c r="B32" s="13"/>
+      <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E31" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="F31" s="19"/>
-      <c r="H31" s="25" t="s">
+      <c r="E32" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32" s="19"/>
+      <c r="H32" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I32" s="16" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C33" s="14"/>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
+      <c r="C34" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/scenarios/bladder/processes/BladderMeds.xlsx
+++ b/scenarios/bladder/processes/BladderMeds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B9473F-9B30-496C-AE8F-051AC6C93851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D64E1C-A3D0-474F-AB3E-ACB9E3D905D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="25920" windowHeight="16749" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5383" yWindow="3480" windowWidth="11023" windowHeight="6926" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="content" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -306,12 +306,18 @@
   <si>
     <t>JUMP(BladderExplanation)</t>
   </si>
+  <si>
+    <t>SELECT * FROM ProductsBladder WHERE PZN == '2483617'</t>
+  </si>
+  <si>
+    <t>SELECT * FROM ProductsBladder WHERE PZN == '161996'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -344,13 +350,6 @@
     </font>
     <font>
       <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -463,7 +462,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -487,11 +486,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -505,17 +503,21 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -903,17 +905,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:H27"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.3828125" customWidth="1"/>
+    <col min="2" max="2" width="17.3828125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="13.53515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.53515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="52.3046875" customWidth="1"/>
-    <col min="6" max="6" width="19.61328125" customWidth="1"/>
+    <col min="5" max="5" width="52.3046875" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="19.61328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.69140625" customWidth="1"/>
     <col min="8" max="8" width="21.84375" customWidth="1"/>
     <col min="9" max="9" width="44" customWidth="1"/>
@@ -962,7 +964,7 @@
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="23"/>
+      <c r="H2" s="20"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C3" s="7" t="s">
@@ -971,7 +973,7 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="23"/>
+      <c r="H3" s="20"/>
     </row>
     <row r="4" spans="1:9" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -983,7 +985,7 @@
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="23"/>
+      <c r="H4" s="20"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C5" s="7" t="s">
@@ -995,7 +997,7 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="23"/>
+      <c r="H5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="169.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
@@ -1010,11 +1012,13 @@
       <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="H6" s="24" t="s">
+      <c r="F6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1031,8 +1035,10 @@
       <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="H7" s="23"/>
+      <c r="F7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="306" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -1047,10 +1053,10 @@
       <c r="G8" t="s">
         <v>27</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="H8" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="16" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1067,7 +1073,7 @@
       <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="23"/>
+      <c r="H9" s="20"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C10" s="7" t="s">
@@ -1082,7 +1088,7 @@
       <c r="G10" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="23"/>
+      <c r="H10" s="20"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C11" s="7" t="s">
@@ -1097,7 +1103,7 @@
       <c r="G11" t="s">
         <v>35</v>
       </c>
-      <c r="H11" s="23"/>
+      <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C12" s="7" t="s">
@@ -1112,7 +1118,7 @@
       <c r="G12" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="23"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C13" s="7" t="s">
@@ -1124,13 +1130,13 @@
       <c r="E13" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="23"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:9" ht="291.45" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1139,11 +1145,11 @@
       <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="H14" s="24" t="s">
+      <c r="F14" s="23"/>
+      <c r="H14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="I14" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1154,10 +1160,10 @@
       <c r="C15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H15" s="23"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C16" s="10" t="s">
@@ -1169,7 +1175,7 @@
       <c r="E16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H16" s="23"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C17" s="10" t="s">
@@ -1181,7 +1187,7 @@
       <c r="E17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="23"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C18" s="10" t="s">
@@ -1193,7 +1199,7 @@
       <c r="E18" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="23"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C19" s="10" t="s">
@@ -1205,108 +1211,108 @@
       <c r="E19" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="23"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="23"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:9" ht="131.15" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="H21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="12"/>
+      <c r="C22" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="19"/>
-      <c r="H22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>78</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="21" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="19" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="22"/>
-      <c r="H23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="13"/>
-      <c r="C24" s="21" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="H24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="21" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F25" s="19"/>
-      <c r="H25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H26" s="23"/>
+      <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="12"/>
+      <c r="C27" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -1315,11 +1321,11 @@
       <c r="E27" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="23"/>
+      <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="12"/>
+      <c r="C28" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1328,11 +1334,11 @@
       <c r="E28" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="23"/>
+      <c r="H28" s="20"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="12"/>
+      <c r="C29" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -1341,14 +1347,14 @@
       <c r="E29" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="23"/>
+      <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:9" ht="233.15" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1357,11 +1363,11 @@
       <c r="E30" t="s">
         <v>50</v>
       </c>
-      <c r="F30" s="19"/>
-      <c r="H30" s="24" t="s">
+      <c r="F30" s="23"/>
+      <c r="H30" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="I30" s="15" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1369,8 +1375,8 @@
       <c r="A31" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="12"/>
+      <c r="C31" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -1379,11 +1385,11 @@
       <c r="E31" t="s">
         <v>50</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="H31" s="24" t="s">
+      <c r="F31" s="23"/>
+      <c r="H31" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="I31" s="16" t="s">
+      <c r="I31" s="15" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1391,26 +1397,26 @@
       <c r="A32" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="19"/>
-      <c r="H32" s="25" t="s">
+      <c r="F32" s="23"/>
+      <c r="H32" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="I32" s="16" t="s">
+      <c r="I32" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C34" s="14"/>
+      <c r="C34" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/scenarios/bladder/processes/BladderMeds.xlsx
+++ b/scenarios/bladder/processes/BladderMeds.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tamim\Documents\GitHub\dein-apotheker-scenarios\scenarios\bladder\processes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D64E1C-A3D0-474F-AB3E-ACB9E3D905D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459B8E0F-8511-48C9-A151-430D6AF9DEBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5383" yWindow="3480" windowWidth="11023" windowHeight="6926" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3394" yWindow="3394" windowWidth="11023" windowHeight="6926" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="content" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t>ID</t>
   </si>
@@ -108,40 +108,10 @@
     <t>painkiller</t>
   </si>
   <si>
-    <t>Du kannst ein Schmerzmittel gegen deine Beschwerden beim Wasserlassen einnehmen, damit die zur Genesung äußerst wichitgen Toilettengänge weniger schmerzhaft sind. Welches Schmerzmittel nimmst du am liebsten?</t>
-  </si>
-  <si>
-    <t>[API_painkiller]</t>
-  </si>
-  <si>
     <t>Haben Schmerzmittel nicht starke Nebenwirkungen?</t>
   </si>
   <si>
-    <t>Paracetamol (Ben-u-ron®)</t>
-  </si>
-  <si>
     <t>GO(painkiller2)</t>
-  </si>
-  <si>
-    <t>Parac</t>
-  </si>
-  <si>
-    <t>Ibuprofen (Nurofen®)</t>
-  </si>
-  <si>
-    <t>Ibu</t>
-  </si>
-  <si>
-    <t>Acetylsalicylsäure (Aspirin®)</t>
-  </si>
-  <si>
-    <t>ASS</t>
-  </si>
-  <si>
-    <t>Kombinationspräparate</t>
-  </si>
-  <si>
-    <t>Kombi</t>
   </si>
   <si>
     <t>Überspringen</t>
@@ -276,22 +246,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Es gibt noch 3 Möglichkeiten durch Pflanzen-Kraft das Durchspülen der Blase zu unterstützen. Wie soll es weiter gehen? |</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Medication: offer Tea in addition, else: only tea</t>
-    </r>
-  </si>
-  <si>
     <t>In einer aktuellen Studie konnte gezeigt werden, dass die Kombination aus Ibuprofen und Paracetamol (enthalten in Buscopan Plus) effektiver als die Monotherapie ist. Es wurden zwar auch mehr Nebenwirkungen beobachtet, aber bei kurzzeitiger Anwendung (bei einer Blasenentzündung maximal 7 Tage) sind Nebenwirkungen generell relativ selten.</t>
   </si>
   <si>
@@ -311,13 +265,40 @@
   </si>
   <si>
     <t>SELECT * FROM ProductsBladder WHERE PZN == '161996'</t>
+  </si>
+  <si>
+    <t>SELECT * FROM ProductsBladder WHERE Category == 'Pain'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Du kannst ein Schmerzmittel gegen deine Beschwerden beim Wasserlassen einnehmen, damit die zur Genesung äußerst wichitgen Toilettengänge weniger schmerzhaft sind. </t>
+  </si>
+  <si>
+    <t>SELECT * FROM ProductsBladder WHERE Category == 'KombinAqua'</t>
+  </si>
+  <si>
+    <t>SELECT * FROM ProductsBladder WHERE Category == 'MonoAqua'</t>
+  </si>
+  <si>
+    <t>SELECT * FROM ProductsBladder WHERE Category == 'TeaAqua'</t>
+  </si>
+  <si>
+    <t>SELECT * FROM ProductsBladder WHERE API == 'Arbu'</t>
+  </si>
+  <si>
+    <t>SELECT * FROM ProductsBladder WHERE API == 'Zinnkr'</t>
+  </si>
+  <si>
+    <t>SELECT * FROM ProductsBladder WHERE Category == 'Man'</t>
+  </si>
+  <si>
+    <t>Es gibt noch 3 Möglichkeiten durch Pflanzen-Kraft das Durchspülen der Blase zu unterstützen. Wie soll es weiter gehen?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -349,14 +330,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -371,21 +344,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,24 +367,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF203864"/>
         <bgColor rgb="FF333333"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE5D6"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -462,7 +409,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="15"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -485,11 +432,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -503,21 +446,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -903,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="59" zoomScaleNormal="109" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.15234375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -914,7 +851,7 @@
     <col min="2" max="2" width="17.3828125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="13.53515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="46.53515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="52.3046875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="17.15234375" customWidth="1"/>
     <col min="6" max="6" width="19.61328125" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.69140625" customWidth="1"/>
     <col min="8" max="8" width="21.84375" customWidth="1"/>
@@ -964,7 +901,7 @@
       <c r="E2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="20"/>
+      <c r="H2" s="18"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C3" s="7" t="s">
@@ -973,7 +910,7 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:9" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -985,7 +922,7 @@
       <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="18"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C5" s="7" t="s">
@@ -997,7 +934,7 @@
       <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:9" ht="169.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="9" t="s">
@@ -1013,13 +950,13 @@
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>77</v>
+      <c r="I6" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
@@ -1036,9 +973,9 @@
         <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="20"/>
+        <v>72</v>
+      </c>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="306" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -1048,375 +985,312 @@
         <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>75</v>
+      <c r="I8" s="14" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="19"/>
+      <c r="I9" s="14"/>
+    </row>
+    <row r="10" spans="1:9" ht="291.45" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" t="s">
+      <c r="C10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G9" t="s">
+      <c r="E10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="20"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="20"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="20"/>
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="18"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="20"/>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="18"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="C13" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C14" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="20"/>
-    </row>
-    <row r="14" spans="1:9" ht="291.45" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="E14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="131.15" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="H14" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7" t="s">
+      <c r="F18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H15" s="20"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C16" s="10" t="s">
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C17" s="10" t="s">
+      <c r="D21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="20"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C18" s="10" t="s">
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="20"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="C20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="131.15" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="17" t="s">
+      <c r="D23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>54</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:9" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E21" s="18" t="s">
+      <c r="D24" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="233.15" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="H21" s="20"/>
-    </row>
-    <row r="22" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="19" t="s">
+      <c r="H25" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="23"/>
-      <c r="H22" s="20"/>
-    </row>
-    <row r="23" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>78</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="D26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="24"/>
-      <c r="H23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B24" s="12"/>
-      <c r="C24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="24"/>
-      <c r="H24" s="20"/>
-    </row>
-    <row r="25" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="23"/>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="58.3" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H26" s="20"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B27" s="12"/>
-      <c r="C27" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:9" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="B28" s="12"/>
-      <c r="C28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" t="s">
-        <v>62</v>
-      </c>
-      <c r="H28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="B29" s="12"/>
-      <c r="C29" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="H26" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E29" t="s">
+      <c r="I26" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="20"/>
-    </row>
-    <row r="30" spans="1:9" ht="233.15" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="H30" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="233.15" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="23"/>
-      <c r="H31" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="189.45" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>71</v>
-      </c>
-      <c r="B32" s="12"/>
-      <c r="C32" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="H32" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.4">
-      <c r="C34" s="13"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="C28" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
